--- a/data/trans_orig/P14A35-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A35-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F93740C1-1A09-4CEF-A5A0-0F85ABE8D536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B73E460-30AD-44A7-8E6B-91F145EB661E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D8F8C11A-D1C4-4C83-A187-A4AE08A8FF8B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4AACFB96-E54C-4B12-9112-8712B81ED032}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -78,7 +78,7 @@
     <t>86,14%</t>
   </si>
   <si>
-    <t>58,41%</t>
+    <t>61,15%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -93,7 +93,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>41,59%</t>
+    <t>38,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -105,19 +105,19 @@
     <t>67,69%</t>
   </si>
   <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
   </si>
   <si>
     <t>32,31%</t>
   </si>
   <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -126,37 +126,37 @@
     <t>64,23%</t>
   </si>
   <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
   </si>
   <si>
     <t>35,77%</t>
   </si>
   <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
   </si>
   <si>
     <t>68,91%</t>
   </si>
   <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
   </si>
   <si>
     <t>31,09%</t>
   </si>
   <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -174,55 +174,55 @@
     <t>65,59%</t>
   </si>
   <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
   </si>
   <si>
     <t>34,41%</t>
   </si>
   <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
   </si>
   <si>
     <t>59,07%</t>
   </si>
   <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
   </si>
   <si>
     <t>40,93%</t>
   </si>
   <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
   </si>
   <si>
     <t>62,85%</t>
   </si>
   <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
   </si>
   <si>
     <t>37,15%</t>
   </si>
   <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
   </si>
 </sst>
 </file>
@@ -634,7 +634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7819D09-20C0-4558-B18D-A58B0C3E9860}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26ACB3A9-DA98-44D5-BD85-7A10FA4FFA60}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1361,7 +1361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD944AB-0201-45D1-819F-0419942C7D2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E95844-0D56-4120-8006-494911381A68}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A35-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A35-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B73E460-30AD-44A7-8E6B-91F145EB661E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CD3F3DE-E75C-4E0F-9C85-C844471EB7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4AACFB96-E54C-4B12-9112-8712B81ED032}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CA577C86-5642-47E2-8FC2-500CDC2B2445}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,7 +78,7 @@
     <t>86,14%</t>
   </si>
   <si>
-    <t>61,15%</t>
+    <t>64,08%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -93,7 +93,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>38,85%</t>
+    <t>35,92%</t>
   </si>
   <si>
     <t>100%</t>
@@ -105,19 +105,19 @@
     <t>67,69%</t>
   </si>
   <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
   </si>
   <si>
     <t>32,31%</t>
   </si>
   <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -126,43 +126,43 @@
     <t>64,23%</t>
   </si>
   <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
   </si>
   <si>
     <t>35,77%</t>
   </si>
   <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
   </si>
   <si>
     <t>68,91%</t>
   </si>
   <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
   </si>
   <si>
     <t>31,09%</t>
   </si>
   <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por dolor menstrual en 2015 (Tasa respuesta: 1,02%)</t>
+    <t>Población que recibe medicación o terapia por dolor menstrual en 2016 (Tasa respuesta: 1,02%)</t>
   </si>
   <si>
     <t>49,9%</t>
@@ -174,55 +174,55 @@
     <t>65,59%</t>
   </si>
   <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
   </si>
   <si>
     <t>34,41%</t>
   </si>
   <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
   </si>
   <si>
     <t>59,07%</t>
   </si>
   <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
   </si>
   <si>
     <t>40,93%</t>
   </si>
   <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
   </si>
   <si>
     <t>62,85%</t>
   </si>
   <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
   </si>
   <si>
     <t>37,15%</t>
   </si>
   <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
   </si>
 </sst>
 </file>
@@ -634,7 +634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26ACB3A9-DA98-44D5-BD85-7A10FA4FFA60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A735A9-B953-4F17-8839-9A79304C8037}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1361,7 +1361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E95844-0D56-4120-8006-494911381A68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597BFD20-33A0-4F33-96FA-2C9C8879E461}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
